--- a/protocol/MF62.xlsx
+++ b/protocol/MF62.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo-Tyres\protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8204B8E-62CE-4E40-A977-CAE3AC207284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF3D146-10BD-4E68-98AC-F0F53B8BA35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>60 km/h</t>
-  </si>
-  <si>
     <t>L3</t>
   </si>
   <si>
@@ -100,18 +97,6 @@
   </si>
   <si>
     <t>Loaded Radius &amp; Rolling Radius</t>
-  </si>
-  <si>
-    <t>20 km/h</t>
-  </si>
-  <si>
-    <t>40 km/h</t>
-  </si>
-  <si>
-    <t>100 km/h</t>
-  </si>
-  <si>
-    <t>140 km/h</t>
   </si>
   <si>
     <t>Contact Patch Dimension</t>
@@ -142,6 +127,21 @@
   </si>
   <si>
     <t>V4</t>
+  </si>
+  <si>
+    <t>60 kmph</t>
+  </si>
+  <si>
+    <t>20 kmph</t>
+  </si>
+  <si>
+    <t>40 kmph</t>
+  </si>
+  <si>
+    <t>100 kmph</t>
+  </si>
+  <si>
+    <t>140 kmph</t>
   </si>
 </sst>
 </file>
@@ -367,12 +367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,6 +381,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,20 +678,20 @@
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="18" style="13" customWidth="1"/>
+    <col min="3" max="8" width="18" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -700,7 +700,7 @@
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -723,7 +723,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -742,14 +742,14 @@
         <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -768,14 +768,14 @@
         <v>-30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -794,14 +794,14 @@
         <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -820,21 +820,21 @@
         <v>-30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -846,21 +846,21 @@
         <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
@@ -872,14 +872,14 @@
         <v>-30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -898,14 +898,14 @@
         <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -924,14 +924,14 @@
         <v>-30</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -950,14 +950,14 @@
         <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -976,14 +976,14 @@
         <v>-30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1002,14 +1002,14 @@
         <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1028,14 +1028,14 @@
         <v>-30</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -1054,14 +1054,14 @@
         <v>30</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1080,14 +1080,14 @@
         <v>-30</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1106,14 +1106,14 @@
         <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1132,14 +1132,14 @@
         <v>-30</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -1158,14 +1158,14 @@
         <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1184,21 +1184,21 @@
         <v>-30</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1210,21 +1210,21 @@
         <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1236,21 +1236,21 @@
         <v>-30</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2">
         <v>-5</v>
@@ -1262,21 +1262,21 @@
         <v>30</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2">
         <v>-5</v>
@@ -1288,21 +1288,21 @@
         <v>-30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2">
         <v>5</v>
@@ -1314,21 +1314,21 @@
         <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2">
         <v>5</v>
@@ -1340,18 +1340,18 @@
         <v>-30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>20</v>
@@ -1366,18 +1366,18 @@
         <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
@@ -1392,18 +1392,18 @@
         <v>-30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>16</v>
@@ -1418,18 +1418,18 @@
         <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>16</v>
@@ -1444,21 +1444,21 @@
         <v>-30</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
@@ -1470,21 +1470,21 @@
         <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="7">
         <v>0</v>
@@ -1496,14 +1496,14 @@
         <v>-30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -1522,14 +1522,14 @@
         <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -1548,14 +1548,14 @@
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -1574,14 +1574,14 @@
         <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -1600,14 +1600,14 @@
         <v>0</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -1626,14 +1626,14 @@
         <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -1652,14 +1652,14 @@
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -1678,14 +1678,14 @@
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -1704,14 +1704,14 @@
         <v>0</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -1730,14 +1730,14 @@
         <v>0</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -1756,14 +1756,14 @@
         <v>0</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -1782,14 +1782,14 @@
         <v>0</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -1808,14 +1808,14 @@
         <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -1834,14 +1834,14 @@
         <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -1860,14 +1860,14 @@
         <v>0</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -1886,14 +1886,14 @@
         <v>0</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -1912,14 +1912,14 @@
         <v>0</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -1938,14 +1938,14 @@
         <v>0</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -1964,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -1990,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -2016,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" s="2">
         <v>-5</v>
@@ -2042,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E54" s="2">
         <v>-5</v>
@@ -2068,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55" s="2">
         <v>5</v>
@@ -2094,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E56" s="2">
         <v>5</v>
@@ -2120,18 +2120,18 @@
         <v>0</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>20</v>
@@ -2146,18 +2146,18 @@
         <v>0</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>20</v>
@@ -2172,18 +2172,18 @@
         <v>0</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>16</v>
@@ -2198,18 +2198,18 @@
         <v>0</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>16</v>
@@ -2224,21 +2224,21 @@
         <v>0</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61" s="7">
         <v>0</v>
@@ -2250,21 +2250,21 @@
         <v>0</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E62" s="7">
         <v>0</v>
@@ -2276,14 +2276,14 @@
         <v>0</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>61</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C63" s="9" t="s">
@@ -2302,14 +2302,14 @@
         <v>30</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="9" t="s">
@@ -2328,14 +2328,14 @@
         <v>-30</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -2354,14 +2354,14 @@
         <v>30</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="9" t="s">
@@ -2380,14 +2380,14 @@
         <v>-30</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="9" t="s">
@@ -2406,14 +2406,14 @@
         <v>30</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C68" s="9" t="s">
@@ -2432,14 +2432,14 @@
         <v>-30</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="9" t="s">
@@ -2458,14 +2458,14 @@
         <v>30</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -2484,14 +2484,14 @@
         <v>-30</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="9" t="s">
@@ -2510,14 +2510,14 @@
         <v>30</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="9" t="s">
@@ -2536,14 +2536,14 @@
         <v>-30</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -2562,14 +2562,14 @@
         <v>30</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C74" s="9" t="s">
@@ -2588,14 +2588,14 @@
         <v>-30</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>73</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -2614,14 +2614,14 @@
         <v>30</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -2640,14 +2640,14 @@
         <v>-30</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>75</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C77" s="9" t="s">
@@ -2666,14 +2666,14 @@
         <v>30</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>76</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="9" t="s">
@@ -2692,14 +2692,14 @@
         <v>-30</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>77</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C79" s="9" t="s">
@@ -2718,14 +2718,14 @@
         <v>30</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C80" s="9" t="s">
@@ -2744,14 +2744,14 @@
         <v>-30</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C81" s="9" t="s">
@@ -2770,14 +2770,14 @@
         <v>30</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>80</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C82" s="9" t="s">
@@ -2796,14 +2796,14 @@
         <v>-30</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>81</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -2822,14 +2822,14 @@
         <v>30</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>82</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C84" s="9" t="s">
@@ -2848,14 +2848,14 @@
         <v>-30</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>83</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C85" s="9" t="s">
@@ -2874,14 +2874,14 @@
         <v>30</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -2900,15 +2900,15 @@
         <v>-30</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>85</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>24</v>
+      <c r="B87" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>19</v>
@@ -2926,15 +2926,15 @@
         <v>0</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>86</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>24</v>
+      <c r="B88" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>19</v>
@@ -2952,15 +2952,15 @@
         <v>0</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>87</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>24</v>
+      <c r="B89" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>19</v>
@@ -2978,15 +2978,15 @@
         <v>0</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>88</v>
       </c>
-      <c r="B90" s="17" t="s">
-        <v>24</v>
+      <c r="B90" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>19</v>
@@ -3004,15 +3004,15 @@
         <v>0</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>89</v>
       </c>
-      <c r="B91" s="17" t="s">
-        <v>24</v>
+      <c r="B91" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>19</v>
@@ -3030,15 +3030,15 @@
         <v>0</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>90</v>
       </c>
-      <c r="B92" s="17" t="s">
-        <v>24</v>
+      <c r="B92" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>19</v>
@@ -3056,15 +3056,15 @@
         <v>0</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>91</v>
       </c>
-      <c r="B93" s="17" t="s">
-        <v>24</v>
+      <c r="B93" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>19</v>
@@ -3082,15 +3082,15 @@
         <v>0</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>92</v>
       </c>
-      <c r="B94" s="17" t="s">
-        <v>24</v>
+      <c r="B94" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>19</v>
@@ -3108,15 +3108,15 @@
         <v>0</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>93</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>24</v>
+      <c r="B95" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C95" s="9" t="s">
         <v>19</v>
@@ -3134,15 +3134,15 @@
         <v>0</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>94</v>
       </c>
-      <c r="B96" s="17" t="s">
-        <v>24</v>
+      <c r="B96" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C96" s="9" t="s">
         <v>19</v>
@@ -3160,21 +3160,21 @@
         <v>0</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>95</v>
       </c>
-      <c r="B97" s="17" t="s">
-        <v>24</v>
+      <c r="B97" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E97" s="9">
         <v>0</v>
@@ -3186,21 +3186,21 @@
         <v>0</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>96</v>
       </c>
-      <c r="B98" s="17" t="s">
-        <v>24</v>
+      <c r="B98" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C98" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E98" s="9">
         <v>0</v>
@@ -3212,21 +3212,21 @@
         <v>0</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>97</v>
       </c>
-      <c r="B99" s="17" t="s">
-        <v>24</v>
+      <c r="B99" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C99" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E99" s="9">
         <v>0</v>
@@ -3238,21 +3238,21 @@
         <v>0</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>98</v>
       </c>
-      <c r="B100" s="17" t="s">
-        <v>24</v>
+      <c r="B100" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E100" s="9">
         <v>0</v>
@@ -3264,21 +3264,21 @@
         <v>0</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>99</v>
       </c>
-      <c r="B101" s="17" t="s">
-        <v>24</v>
+      <c r="B101" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C101" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E101" s="9">
         <v>0</v>
@@ -3290,15 +3290,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>100</v>
       </c>
-      <c r="B102" s="17" t="s">
-        <v>24</v>
+      <c r="B102" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>15</v>
@@ -3316,15 +3316,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>101</v>
       </c>
-      <c r="B103" s="17" t="s">
-        <v>24</v>
+      <c r="B103" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>15</v>
@@ -3342,15 +3342,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>102</v>
       </c>
-      <c r="B104" s="17" t="s">
-        <v>24</v>
+      <c r="B104" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>15</v>
@@ -3368,15 +3368,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>103</v>
       </c>
-      <c r="B105" s="17" t="s">
-        <v>24</v>
+      <c r="B105" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>15</v>
@@ -3394,15 +3394,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>104</v>
       </c>
-      <c r="B106" s="17" t="s">
-        <v>24</v>
+      <c r="B106" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>15</v>
@@ -3420,15 +3420,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>105</v>
       </c>
-      <c r="B107" s="17" t="s">
-        <v>24</v>
+      <c r="B107" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>15</v>
@@ -3446,15 +3446,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>106</v>
       </c>
-      <c r="B108" s="17" t="s">
-        <v>24</v>
+      <c r="B108" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>15</v>
@@ -3472,15 +3472,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>107</v>
       </c>
-      <c r="B109" s="17" t="s">
-        <v>24</v>
+      <c r="B109" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>15</v>
@@ -3498,15 +3498,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>108</v>
       </c>
-      <c r="B110" s="17" t="s">
-        <v>24</v>
+      <c r="B110" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>15</v>
@@ -3524,15 +3524,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>109</v>
       </c>
-      <c r="B111" s="17" t="s">
-        <v>24</v>
+      <c r="B111" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>15</v>
@@ -3550,21 +3550,21 @@
         <v>0</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>110</v>
       </c>
-      <c r="B112" s="17" t="s">
-        <v>24</v>
+      <c r="B112" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E112" s="9">
         <v>0</v>
@@ -3576,21 +3576,21 @@
         <v>0</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>111</v>
       </c>
-      <c r="B113" s="17" t="s">
-        <v>24</v>
+      <c r="B113" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E113" s="9">
         <v>0</v>
@@ -3602,21 +3602,21 @@
         <v>0</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>112</v>
       </c>
-      <c r="B114" s="17" t="s">
-        <v>24</v>
+      <c r="B114" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E114" s="9">
         <v>0</v>
@@ -3628,21 +3628,21 @@
         <v>0</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>113</v>
       </c>
-      <c r="B115" s="17" t="s">
-        <v>24</v>
+      <c r="B115" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E115" s="9">
         <v>0</v>
@@ -3654,21 +3654,21 @@
         <v>0</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>114</v>
       </c>
-      <c r="B116" s="17" t="s">
-        <v>24</v>
+      <c r="B116" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E116" s="9">
         <v>0</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>115</v>
       </c>
-      <c r="B117" s="17" t="s">
-        <v>24</v>
+      <c r="B117" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>20</v>
@@ -3706,18 +3706,18 @@
         <v>0</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>116</v>
       </c>
-      <c r="B118" s="17" t="s">
-        <v>24</v>
+      <c r="B118" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>20</v>
@@ -3732,18 +3732,18 @@
         <v>0</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>117</v>
       </c>
-      <c r="B119" s="17" t="s">
-        <v>24</v>
+      <c r="B119" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>20</v>
@@ -3758,18 +3758,18 @@
         <v>0</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>118</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>24</v>
+      <c r="B120" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>20</v>
@@ -3784,18 +3784,18 @@
         <v>0</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>119</v>
       </c>
-      <c r="B121" s="17" t="s">
-        <v>24</v>
+      <c r="B121" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>20</v>
@@ -3810,18 +3810,18 @@
         <v>0</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>120</v>
       </c>
-      <c r="B122" s="17" t="s">
-        <v>24</v>
+      <c r="B122" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>16</v>
@@ -3836,18 +3836,18 @@
         <v>0</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>121</v>
       </c>
-      <c r="B123" s="17" t="s">
-        <v>24</v>
+      <c r="B123" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>16</v>
@@ -3862,18 +3862,18 @@
         <v>0</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>122</v>
       </c>
-      <c r="B124" s="17" t="s">
-        <v>24</v>
+      <c r="B124" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>16</v>
@@ -3888,18 +3888,18 @@
         <v>0</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>123</v>
       </c>
-      <c r="B125" s="17" t="s">
-        <v>24</v>
+      <c r="B125" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>16</v>
@@ -3914,18 +3914,18 @@
         <v>0</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>124</v>
       </c>
-      <c r="B126" s="17" t="s">
-        <v>24</v>
+      <c r="B126" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>16</v>
@@ -3940,21 +3940,21 @@
         <v>0</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>125</v>
       </c>
-      <c r="B127" s="17" t="s">
-        <v>24</v>
+      <c r="B127" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E127" s="9">
         <v>0</v>
@@ -3966,21 +3966,21 @@
         <v>0</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>126</v>
       </c>
-      <c r="B128" s="17" t="s">
-        <v>24</v>
+      <c r="B128" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E128" s="9">
         <v>0</v>
@@ -3992,21 +3992,21 @@
         <v>0</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>127</v>
       </c>
-      <c r="B129" s="17" t="s">
-        <v>24</v>
+      <c r="B129" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E129" s="9">
         <v>0</v>
@@ -4018,21 +4018,21 @@
         <v>0</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>128</v>
       </c>
-      <c r="B130" s="17" t="s">
-        <v>24</v>
+      <c r="B130" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E130" s="9">
         <v>0</v>
@@ -4044,21 +4044,21 @@
         <v>0</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>129</v>
       </c>
-      <c r="B131" s="17" t="s">
-        <v>24</v>
+      <c r="B131" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E131" s="9">
         <v>0</v>
@@ -4070,15 +4070,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>130</v>
       </c>
-      <c r="B132" s="17" t="s">
-        <v>29</v>
+      <c r="B132" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C132" s="9" t="s">
         <v>15</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H132" s="9">
         <v>0</v>
@@ -4103,8 +4103,8 @@
       <c r="A133" s="2">
         <v>131</v>
       </c>
-      <c r="B133" s="17" t="s">
-        <v>29</v>
+      <c r="B133" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>15</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H133" s="9">
         <v>0</v>
@@ -4129,14 +4129,14 @@
       <c r="A134" s="3">
         <v>132</v>
       </c>
-      <c r="B134" s="17" t="s">
-        <v>29</v>
+      <c r="B134" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E134" s="9">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H134" s="9">
         <v>0</v>
@@ -4155,7 +4155,7 @@
       <c r="A135" s="4">
         <v>133</v>
       </c>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C135" s="9" t="s">
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H135" s="9">
         <v>0</v>
@@ -4181,7 +4181,7 @@
       <c r="A136" s="2">
         <v>134</v>
       </c>
-      <c r="B136" s="17" t="s">
+      <c r="B136" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C136" s="9" t="s">
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H136" s="9">
         <v>0</v>
@@ -4207,14 +4207,14 @@
       <c r="A137" s="2">
         <v>135</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B137" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E137" s="9">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H137" s="9">
         <v>0</v>
@@ -4233,7 +4233,7 @@
       <c r="A138" s="2">
         <v>136</v>
       </c>
-      <c r="B138" s="17" t="s">
+      <c r="B138" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C138" s="7" t="s">
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H138" s="9">
         <v>0</v>
@@ -4259,7 +4259,7 @@
       <c r="A139" s="2">
         <v>137</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C139" s="7" t="s">
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H139" s="9">
         <v>0</v>
@@ -4285,14 +4285,14 @@
       <c r="A140" s="2">
         <v>138</v>
       </c>
-      <c r="B140" s="17" t="s">
+      <c r="B140" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E140" s="9">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H140" s="9">
         <v>0</v>
@@ -4311,11 +4311,11 @@
       <c r="A141" s="2">
         <v>139</v>
       </c>
-      <c r="B141" s="17" t="s">
+      <c r="B141" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>20</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H141" s="9">
         <v>0</v>
@@ -4337,11 +4337,11 @@
       <c r="A142" s="2">
         <v>140</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>16</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H142" s="9">
         <v>0</v>
@@ -4363,14 +4363,14 @@
       <c r="A143" s="3">
         <v>141</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E143" s="9">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H143" s="9">
         <v>0</v>
@@ -4389,7 +4389,7 @@
       <c r="A144" s="4">
         <v>142</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C144" s="9" t="s">
@@ -4405,7 +4405,7 @@
         <v>90</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H144" s="9">
         <v>0</v>
@@ -4415,7 +4415,7 @@
       <c r="A145" s="2">
         <v>143</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C145" s="9" t="s">
@@ -4431,7 +4431,7 @@
         <v>90</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H145" s="9">
         <v>0</v>
@@ -4441,14 +4441,14 @@
       <c r="A146" s="2">
         <v>144</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E146" s="9">
         <v>0</v>
@@ -4457,7 +4457,7 @@
         <v>90</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H146" s="9">
         <v>0</v>
@@ -4467,7 +4467,7 @@
       <c r="A147" s="2">
         <v>145</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C147" s="7" t="s">
@@ -4483,7 +4483,7 @@
         <v>90</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H147" s="9">
         <v>0</v>
@@ -4493,7 +4493,7 @@
       <c r="A148" s="2">
         <v>146</v>
       </c>
-      <c r="B148" s="17" t="s">
+      <c r="B148" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C148" s="7" t="s">
@@ -4509,7 +4509,7 @@
         <v>90</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H148" s="9">
         <v>0</v>
@@ -4519,14 +4519,14 @@
       <c r="A149" s="2">
         <v>147</v>
       </c>
-      <c r="B149" s="17" t="s">
+      <c r="B149" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E149" s="9">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>90</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H149" s="9">
         <v>0</v>
@@ -4545,11 +4545,11 @@
       <c r="A150" s="2">
         <v>148</v>
       </c>
-      <c r="B150" s="17" t="s">
+      <c r="B150" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>20</v>
@@ -4561,7 +4561,7 @@
         <v>90</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H150" s="9">
         <v>0</v>
@@ -4571,11 +4571,11 @@
       <c r="A151" s="2">
         <v>149</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>16</v>
@@ -4587,7 +4587,7 @@
         <v>90</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H151" s="9">
         <v>0</v>
@@ -4597,14 +4597,14 @@
       <c r="A152" s="3">
         <v>150</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E152" s="9">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>90</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H152" s="9">
         <v>0</v>
@@ -4623,7 +4623,7 @@
       <c r="A153" s="4">
         <v>151</v>
       </c>
-      <c r="B153" s="16" t="s">
+      <c r="B153" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C153" s="4" t="s">
@@ -4636,10 +4636,10 @@
         <v>0</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H153" s="9">
         <v>0</v>
@@ -4649,7 +4649,7 @@
       <c r="A154" s="2">
         <v>152</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C154" s="2" t="s">
@@ -4662,10 +4662,10 @@
         <v>0</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H154" s="9">
         <v>0</v>
@@ -4675,7 +4675,7 @@
       <c r="A155" s="2">
         <v>153</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -4688,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H155" s="9">
         <v>0</v>
@@ -4701,7 +4701,7 @@
       <c r="A156" s="2">
         <v>154</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="B156" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -4714,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H156" s="9">
         <v>0</v>
@@ -4727,11 +4727,11 @@
       <c r="A157" s="2">
         <v>155</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>16</v>
@@ -4740,10 +4740,10 @@
         <v>0</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H157" s="9">
         <v>0</v>
@@ -4753,11 +4753,11 @@
       <c r="A158" s="3">
         <v>156</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>16</v>
@@ -4766,10 +4766,10 @@
         <v>0</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H158" s="9">
         <v>0</v>
@@ -4779,7 +4779,7 @@
       <c r="A159" s="4">
         <v>157</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C159" s="9" t="s">
@@ -4795,17 +4795,17 @@
         <v>0</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>158</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="9" t="s">
@@ -4821,24 +4821,24 @@
         <v>0</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>159</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E161" s="9">
         <v>0</v>
@@ -4847,17 +4847,17 @@
         <v>0</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>160</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="9" t="s">
@@ -4873,17 +4873,17 @@
         <v>0</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>161</v>
       </c>
-      <c r="B163" s="17" t="s">
+      <c r="B163" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C163" s="9" t="s">
@@ -4899,24 +4899,24 @@
         <v>0</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>162</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E164" s="9">
         <v>0</v>
@@ -4925,17 +4925,17 @@
         <v>0</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>163</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B165" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C165" s="9" t="s">
@@ -4951,17 +4951,17 @@
         <v>0</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>164</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C166" s="9" t="s">
@@ -4977,24 +4977,24 @@
         <v>0</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>165</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C167" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E167" s="9">
         <v>0</v>
@@ -5003,17 +5003,17 @@
         <v>0</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>166</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C168" s="9" t="s">
@@ -5029,17 +5029,17 @@
         <v>0</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>167</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B169" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C169" s="9" t="s">
@@ -5055,24 +5055,24 @@
         <v>0</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>168</v>
       </c>
-      <c r="B170" s="17" t="s">
+      <c r="B170" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E170" s="9">
         <v>0</v>
@@ -5081,17 +5081,17 @@
         <v>0</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>169</v>
       </c>
-      <c r="B171" s="17" t="s">
+      <c r="B171" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C171" s="7" t="s">
@@ -5107,17 +5107,17 @@
         <v>0</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>170</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="B172" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C172" s="7" t="s">
@@ -5133,24 +5133,24 @@
         <v>0</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>171</v>
       </c>
-      <c r="B173" s="17" t="s">
+      <c r="B173" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C173" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E173" s="9">
         <v>0</v>
@@ -5159,17 +5159,17 @@
         <v>0</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>172</v>
       </c>
-      <c r="B174" s="17" t="s">
+      <c r="B174" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C174" s="7" t="s">
@@ -5185,17 +5185,17 @@
         <v>0</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>173</v>
       </c>
-      <c r="B175" s="17" t="s">
+      <c r="B175" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C175" s="7" t="s">
@@ -5211,24 +5211,24 @@
         <v>0</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>174</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="B176" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E176" s="9">
         <v>0</v>
@@ -5237,17 +5237,17 @@
         <v>0</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>175</v>
       </c>
-      <c r="B177" s="17" t="s">
+      <c r="B177" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C177" s="7" t="s">
@@ -5263,17 +5263,17 @@
         <v>0</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>176</v>
       </c>
-      <c r="B178" s="17" t="s">
+      <c r="B178" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C178" s="7" t="s">
@@ -5289,24 +5289,24 @@
         <v>0</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>177</v>
       </c>
-      <c r="B179" s="17" t="s">
+      <c r="B179" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E179" s="9">
         <v>0</v>
@@ -5315,17 +5315,17 @@
         <v>0</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>178</v>
       </c>
-      <c r="B180" s="17" t="s">
+      <c r="B180" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C180" s="7" t="s">
@@ -5341,17 +5341,17 @@
         <v>0</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>179</v>
       </c>
-      <c r="B181" s="17" t="s">
+      <c r="B181" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C181" s="7" t="s">
@@ -5367,24 +5367,24 @@
         <v>0</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>180</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E182" s="9">
         <v>0</v>
@@ -5393,21 +5393,21 @@
         <v>0</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>181</v>
       </c>
-      <c r="B183" s="17" t="s">
+      <c r="B183" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>20</v>
@@ -5419,21 +5419,21 @@
         <v>0</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>182</v>
       </c>
-      <c r="B184" s="17" t="s">
+      <c r="B184" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>16</v>
@@ -5445,24 +5445,24 @@
         <v>0</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>183</v>
       </c>
-      <c r="B185" s="17" t="s">
+      <c r="B185" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E185" s="9">
         <v>0</v>
@@ -5471,21 +5471,21 @@
         <v>0</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>184</v>
       </c>
-      <c r="B186" s="17" t="s">
+      <c r="B186" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>20</v>
@@ -5497,21 +5497,21 @@
         <v>0</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>185</v>
       </c>
-      <c r="B187" s="17" t="s">
+      <c r="B187" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>16</v>
@@ -5523,24 +5523,24 @@
         <v>0</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>186</v>
       </c>
-      <c r="B188" s="17" t="s">
+      <c r="B188" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E188" s="9">
         <v>0</v>
@@ -5549,21 +5549,21 @@
         <v>0</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>187</v>
       </c>
-      <c r="B189" s="17" t="s">
+      <c r="B189" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>20</v>
@@ -5575,21 +5575,21 @@
         <v>0</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>188</v>
       </c>
-      <c r="B190" s="17" t="s">
+      <c r="B190" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>16</v>
@@ -5601,24 +5601,24 @@
         <v>0</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>189</v>
       </c>
-      <c r="B191" s="17" t="s">
+      <c r="B191" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E191" s="9">
         <v>0</v>
@@ -5627,21 +5627,21 @@
         <v>0</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>190</v>
       </c>
-      <c r="B192" s="17" t="s">
+      <c r="B192" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>20</v>
@@ -5653,21 +5653,21 @@
         <v>0</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>191</v>
       </c>
-      <c r="B193" s="17" t="s">
+      <c r="B193" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>16</v>
@@ -5679,24 +5679,24 @@
         <v>0</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>192</v>
       </c>
-      <c r="B194" s="17" t="s">
+      <c r="B194" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E194" s="2">
         <v>0</v>
@@ -5705,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
